--- a/实验三/冯少浦_甘特图.xlsx
+++ b/实验三/冯少浦_甘特图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsp\Desktop\软件工程\player\software-engineering-design\实验三\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsp\Desktop\软件工程\project\software-engineering-design\实验三\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38783FAE-E47B-4275-ACE8-C9F34B4966BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61591135-73F3-4D04-BB66-E43AE8CB4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>项目情况跟踪表</t>
   </si>
@@ -114,6 +114,82 @@
   </si>
   <si>
     <t>测试验收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSong的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankList的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singer的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongList的Controller.Mapper,service编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障树和割集数分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD编写part1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS编写part1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计工作活动分解</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petri Net绘制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataFlow Chart绘制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性研究报告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocomo模型估算工作量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,83 +396,89 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -733,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30:Z30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -745,105 +827,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
@@ -860,7 +942,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5">
@@ -984,7 +1066,7 @@
       <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1022,7 +1104,7 @@
       <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1054,17 +1136,17 @@
       <c r="AD8" s="4"/>
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1174,7 @@
       <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1130,7 +1212,7 @@
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D11"/>
@@ -1162,7 +1244,7 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12"/>
@@ -1203,64 +1285,64 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
@@ -1294,7 +1376,7 @@
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1326,7 +1408,7 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
@@ -1360,7 +1442,7 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1392,7 +1474,7 @@
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
@@ -1426,7 +1508,7 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1458,7 +1540,7 @@
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
@@ -1492,39 +1574,39 @@
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
     </row>
     <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
@@ -1558,7 +1640,7 @@
       <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1624,7 +1706,7 @@
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="34"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1642,12 +1724,12 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -1690,7 +1772,7 @@
       <c r="AD27"/>
     </row>
     <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="34"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1712,9 +1794,9 @@
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -1756,7 +1838,7 @@
       <c r="AD29"/>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1780,8 +1862,8 @@
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
       <c r="AA30"/>
       <c r="AB30"/>
       <c r="AC30"/>
@@ -1789,38 +1871,40 @@
     </row>
     <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
     </row>
     <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1852,7 +1936,7 @@
       <c r="AD32"/>
     </row>
     <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="34"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1884,7 +1968,9 @@
       <c r="AD33"/>
     </row>
     <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1913,10 +1999,10 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="13"/>
+      <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1945,10 +2031,12 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="14"/>
+      <c r="AD35" s="13"/>
     </row>
     <row r="36" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1977,10 +2065,10 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="14"/>
+      <c r="AD36" s="13"/>
     </row>
     <row r="37" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2009,10 +2097,12 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="14"/>
+      <c r="AD37" s="13"/>
     </row>
     <row r="38" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="32" t="s">
+        <v>29</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2041,10 +2131,10 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="14"/>
+      <c r="AD38" s="13"/>
     </row>
     <row r="39" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -2076,27 +2166,29 @@
       <c r="AD39" s="10"/>
     </row>
     <row r="40" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
+      <c r="A40" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -2108,7 +2200,7 @@
       <c r="AD40" s="9"/>
     </row>
     <row r="41" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2140,7 +2232,9 @@
       <c r="AD41" s="9"/>
     </row>
     <row r="42" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2172,8 +2266,8 @@
       <c r="AD42" s="9"/>
     </row>
     <row r="43" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="17"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43" s="9"/>
@@ -2204,8 +2298,10 @@
       <c r="AD43" s="9"/>
     </row>
     <row r="44" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="17"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="9"/>
@@ -2236,13 +2332,13 @@
       <c r="AD44" s="9"/>
     </row>
     <row r="45" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2268,8 +2364,10 @@
       <c r="AD45" s="9"/>
     </row>
     <row r="46" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="17"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2300,8 +2398,8 @@
       <c r="AD46" s="9"/>
     </row>
     <row r="47" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="17"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2332,8 +2430,10 @@
       <c r="AD47" s="9"/>
     </row>
     <row r="48" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="17"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2364,8 +2464,8 @@
       <c r="AD48" s="9"/>
     </row>
     <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="17"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2396,8 +2496,8 @@
       <c r="AD49" s="9"/>
     </row>
     <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="17"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -2428,8 +2528,10 @@
       <c r="AD50" s="9"/>
     </row>
     <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="17"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -2457,8 +2559,8 @@
       <c r="AA51"/>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="17"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2486,8 +2588,10 @@
       <c r="AA52"/>
     </row>
     <row r="53" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="17"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2515,8 +2619,8 @@
       <c r="AA53"/>
     </row>
     <row r="54" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="17"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -2547,8 +2651,10 @@
       <c r="AD54" s="9"/>
     </row>
     <row r="55" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="17"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -2579,8 +2685,8 @@
       <c r="AD55" s="9"/>
     </row>
     <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="17"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -2608,8 +2714,10 @@
       <c r="AA56"/>
     </row>
     <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="17"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -2635,8 +2743,8 @@
       <c r="Y57"/>
     </row>
     <row r="58" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="17"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
@@ -2662,8 +2770,10 @@
       <c r="Y58"/>
     </row>
     <row r="59" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="17"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
@@ -2689,8 +2799,8 @@
       <c r="Y59"/>
     </row>
     <row r="60" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="17"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
@@ -2716,8 +2826,10 @@
       <c r="Y60"/>
     </row>
     <row r="61" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="17"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
@@ -2743,8 +2855,8 @@
       <c r="Y61"/>
     </row>
     <row r="62" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="17"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
@@ -2770,8 +2882,10 @@
       <c r="Y62"/>
     </row>
     <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="17"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
@@ -2797,8 +2911,8 @@
       <c r="Y63"/>
     </row>
     <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="17"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
@@ -2824,8 +2938,10 @@
       <c r="Y64"/>
     </row>
     <row r="65" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="17"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
@@ -2851,8 +2967,8 @@
       <c r="Y65"/>
     </row>
     <row r="66" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="17"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
@@ -2878,8 +2994,10 @@
       <c r="Y66"/>
     </row>
     <row r="67" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="17"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
@@ -2910,8 +3028,8 @@
       <c r="AD67" s="9"/>
     </row>
     <row r="68" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="17"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
@@ -2939,11 +3057,13 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
-      <c r="AD68" s="14"/>
+      <c r="AD68" s="13"/>
     </row>
     <row r="69" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="17"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2971,44 +3091,44 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="14"/>
+      <c r="AD69" s="13"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
@@ -3555,7 +3675,7 @@
       <c r="AD91"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="3" t="s">
         <v>3</v>
       </c>
@@ -3581,7 +3701,7 @@
       <c r="O93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q93" s="16" t="s">
+      <c r="Q93" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -3589,32 +3709,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A1:AD3"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
+  <mergeCells count="41">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B31:AD31"/>
-    <mergeCell ref="A40:U40"/>
     <mergeCell ref="A81:U81"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -3628,6 +3733,24 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A1:AD3"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验三/冯少浦_甘特图.xlsx
+++ b/实验三/冯少浦_甘特图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsp\Desktop\软件工程\project\software-engineering-design\实验三\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61591135-73F3-4D04-BB66-E43AE8CB4169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B81751-5DBC-49C2-8912-D20BC49FC598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,22 +117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Admin的Controller.Mapper,service编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collect的Controller.Mapper,service编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment的Controller.Mapper,service编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumer的Controller.Mapper,service编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSong的Controller.Mapper,service编码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -161,10 +145,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SRS编写part1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>设计工作活动分解</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -190,6 +170,26 @@
   </si>
   <si>
     <t>Cocomo模型估算工作量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险预测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS编写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目活动AOE图和关键路径分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASE调研</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计风格分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +444,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,32 +462,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -813,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:CF93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -826,105 +832,105 @@
     <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
@@ -941,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
@@ -1032,8 +1038,170 @@
       <c r="AD5" s="5">
         <v>44662</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE5" s="5">
+        <v>44663</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>44664</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>44665</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>44666</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>44667</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>44668</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>44669</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>44670</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>44671</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>44672</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>44673</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>44674</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>44675</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>44676</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>44677</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>44678</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>44679</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>44680</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>44681</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>44682</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>44683</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>44684</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>44685</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>44686</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>44687</v>
+      </c>
+      <c r="BD5" s="5">
+        <v>44688</v>
+      </c>
+      <c r="BE5" s="5">
+        <v>44689</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>44690</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>44691</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>44692</v>
+      </c>
+      <c r="BI5" s="5">
+        <v>44693</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>44694</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>44695</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>44696</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>44697</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>44698</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>44699</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>44700</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>44701</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>44702</v>
+      </c>
+      <c r="BS5" s="5">
+        <v>44703</v>
+      </c>
+      <c r="BT5" s="5">
+        <v>44704</v>
+      </c>
+      <c r="BU5" s="5">
+        <v>44705</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>44706</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>44707</v>
+      </c>
+      <c r="BX5" s="5">
+        <v>44708</v>
+      </c>
+      <c r="BY5" s="5">
+        <v>44709</v>
+      </c>
+      <c r="BZ5" s="5">
+        <v>44710</v>
+      </c>
+      <c r="CA5" s="5">
+        <v>44711</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>44712</v>
+      </c>
+      <c r="CC5" s="5">
+        <v>44713</v>
+      </c>
+      <c r="CD5" s="5">
+        <v>44714</v>
+      </c>
+      <c r="CE5" s="5">
+        <v>44715</v>
+      </c>
+      <c r="CF5" s="5">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1065,8 +1233,8 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1103,8 +1271,8 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:84" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1135,8 +1303,8 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
@@ -1173,8 +1341,8 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
       <c r="B10" s="4"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1205,8 +1373,8 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1243,8 +1411,8 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12"/>
@@ -1275,8 +1443,8 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B13"/>
@@ -1309,8 +1477,8 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1341,8 +1509,8 @@
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
@@ -1375,8 +1543,8 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1408,7 +1576,7 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
@@ -1442,7 +1610,7 @@
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1474,7 +1642,7 @@
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
@@ -1508,7 +1676,7 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1540,7 +1708,7 @@
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
@@ -1574,7 +1742,7 @@
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1606,7 +1774,7 @@
       <c r="AD22" s="16"/>
     </row>
     <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
@@ -1640,7 +1808,7 @@
       <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1672,7 +1840,7 @@
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4"/>
@@ -1706,7 +1874,7 @@
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="40"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1738,7 +1906,7 @@
       <c r="AD26"/>
     </row>
     <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B27"/>
@@ -1772,7 +1940,7 @@
       <c r="AD27"/>
     </row>
     <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="40"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1804,7 +1972,7 @@
       <c r="AD28"/>
     </row>
     <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B29"/>
@@ -1838,7 +2006,7 @@
       <c r="AD29"/>
     </row>
     <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
+      <c r="A30" s="40"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1902,7 +2070,7 @@
       <c r="AD31" s="23"/>
     </row>
     <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B32"/>
@@ -1936,7 +2104,7 @@
       <c r="AD32"/>
     </row>
     <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1968,7 +2136,7 @@
       <c r="AD33"/>
     </row>
     <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="4"/>
@@ -2002,7 +2170,7 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2034,7 +2202,7 @@
       <c r="AD35" s="13"/>
     </row>
     <row r="36" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="4"/>
@@ -2100,7 +2268,7 @@
       <c r="AD37" s="13"/>
     </row>
     <row r="38" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4"/>
@@ -2166,29 +2334,29 @@
       <c r="AD39" s="10"/>
     </row>
     <row r="40" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
@@ -2200,7 +2368,7 @@
       <c r="AD40" s="9"/>
     </row>
     <row r="41" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2232,9 +2400,7 @@
       <c r="AD41" s="9"/>
     </row>
     <row r="42" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="A42" s="29"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2266,7 +2432,9 @@
       <c r="AD42" s="9"/>
     </row>
     <row r="43" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="B43" s="17"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -2298,9 +2466,7 @@
       <c r="AD43" s="9"/>
     </row>
     <row r="44" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="A44" s="34"/>
       <c r="B44" s="17"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -2332,7 +2498,9 @@
       <c r="AD44" s="9"/>
     </row>
     <row r="45" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -2364,9 +2532,7 @@
       <c r="AD45" s="9"/>
     </row>
     <row r="46" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="A46" s="34"/>
       <c r="B46" s="17"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -2398,7 +2564,9 @@
       <c r="AD46" s="9"/>
     </row>
     <row r="47" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="B47" s="17"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -2430,9 +2598,7 @@
       <c r="AD47" s="9"/>
     </row>
     <row r="48" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
-        <v>34</v>
-      </c>
+      <c r="A48" s="34"/>
       <c r="B48" s="17"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2464,7 +2630,9 @@
       <c r="AD48" s="9"/>
     </row>
     <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="33" t="s">
+        <v>33</v>
+      </c>
       <c r="B49" s="17"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -2496,7 +2664,7 @@
       <c r="AD49" s="9"/>
     </row>
     <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="17"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -2528,8 +2696,8 @@
       <c r="AD50" s="9"/>
     </row>
     <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>36</v>
+      <c r="A51" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51"/>
@@ -2559,7 +2727,7 @@
       <c r="AA51"/>
     </row>
     <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="17"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -2588,7 +2756,7 @@
       <c r="AA52"/>
     </row>
     <row r="53" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="17"/>
@@ -2619,7 +2787,7 @@
       <c r="AA53"/>
     </row>
     <row r="54" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="17"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -2651,8 +2819,8 @@
       <c r="AD54" s="9"/>
     </row>
     <row r="55" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
-        <v>37</v>
+      <c r="A55" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55"/>
@@ -2685,7 +2853,7 @@
       <c r="AD55" s="9"/>
     </row>
     <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="17"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2714,8 +2882,8 @@
       <c r="AA56"/>
     </row>
     <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
-        <v>38</v>
+      <c r="A57" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57"/>
@@ -2743,7 +2911,7 @@
       <c r="Y57"/>
     </row>
     <row r="58" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="17"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -2770,8 +2938,8 @@
       <c r="Y58"/>
     </row>
     <row r="59" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>39</v>
+      <c r="A59" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59"/>
@@ -2799,7 +2967,7 @@
       <c r="Y59"/>
     </row>
     <row r="60" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="17"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -2826,8 +2994,8 @@
       <c r="Y60"/>
     </row>
     <row r="61" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
-        <v>40</v>
+      <c r="A61" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61"/>
@@ -2855,7 +3023,9 @@
       <c r="Y61"/>
     </row>
     <row r="62" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="B62" s="17"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -2882,9 +3052,7 @@
       <c r="Y62"/>
     </row>
     <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
-        <v>41</v>
-      </c>
+      <c r="A63" s="31"/>
       <c r="B63" s="17"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2911,7 +3079,7 @@
       <c r="Y63"/>
     </row>
     <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="17"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -2967,7 +3135,7 @@
       <c r="Y65"/>
     </row>
     <row r="66" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="17"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -2994,7 +3162,7 @@
       <c r="Y66"/>
     </row>
     <row r="67" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="17"/>
@@ -3060,7 +3228,7 @@
       <c r="AD68" s="13"/>
     </row>
     <row r="69" spans="1:30" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="17"/>
@@ -3094,9 +3262,11 @@
       <c r="AD69" s="13"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
       <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
       <c r="B71" s="17"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -3128,10 +3298,11 @@
       <c r="AD71" s="14"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
       <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
+      <c r="A73" s="27"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -3155,7 +3326,7 @@
       <c r="V73"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="A74" s="32"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -3179,7 +3350,7 @@
       <c r="V74"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
+      <c r="A75" s="32"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -3203,7 +3374,7 @@
       <c r="V75"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
+      <c r="A76" s="32"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -3227,7 +3398,7 @@
       <c r="V76"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
+      <c r="A77" s="32"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -3251,7 +3422,7 @@
       <c r="V77"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
+      <c r="A78" s="32"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -3275,7 +3446,7 @@
       <c r="V78"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
+      <c r="A79" s="32"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -3299,7 +3470,7 @@
       <c r="V79"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
+      <c r="A80" s="32"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -3323,27 +3494,27 @@
       <c r="V80"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="29"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
       <c r="V81"/>
       <c r="W81"/>
       <c r="X81"/>
@@ -3355,7 +3526,7 @@
       <c r="AD81"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
+      <c r="A82" s="32"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -3387,7 +3558,7 @@
       <c r="AD82"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
+      <c r="A83" s="32"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -3419,7 +3590,6 @@
       <c r="AD83"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84" s="29"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -3451,7 +3621,6 @@
       <c r="AD84"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -3483,7 +3652,6 @@
       <c r="AD85"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -3515,7 +3683,6 @@
       <c r="AD86"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -3547,7 +3714,6 @@
       <c r="AD87"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -3579,7 +3745,6 @@
       <c r="AD88"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -3611,7 +3776,6 @@
       <c r="AD89"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -3643,7 +3807,6 @@
       <c r="AD90"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -3709,48 +3872,44 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A67:A68"/>
+  <mergeCells count="37">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A81:U81"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A1:AD3"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
